--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CBD3FA-F3E8-4D99-960E-A7A5F28D6015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E18E03-B171-4D54-9753-AB5A8A766BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,9 +78,6 @@
   <si>
     <t>변경점</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">적 </t>
   </si>
   <si>
     <t>아군</t>
@@ -215,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 화면에 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적 리소스 수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +225,25 @@
   </si>
   <si>
     <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.spriters-resource.com/playstation/shinmegamitensei/</t>
+  </si>
+  <si>
+    <t>적, 조작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 화면에 출력, 인터페이스 조작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자에 대한 표시 방법을 배우지 못하여 구현 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴만 구성, 나머지는 조작을 배운 뒤 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,10 +679,11 @@
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="50.375" customWidth="1"/>
-    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -684,155 +697,162 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -847,10 +867,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -865,10 +885,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -935,26 +955,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E18E03-B171-4D54-9753-AB5A8A766BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F3CCB-1D13-4C99-B039-4B51856585EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>메인 메뉴만 구성, 나머지는 조작을 배운 뒤 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 수집 포기, 직접 그릴 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방에서 시점 이동 구현, 적 구현 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 메인 메뉴 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +683,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -731,7 +743,9 @@
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
@@ -742,7 +756,9 @@
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -754,7 +770,9 @@
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
@@ -955,16 +973,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -975,6 +983,16 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F3CCB-1D13-4C99-B039-4B51856585EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D11AFA-22FC-4109-A36D-4C30444D3ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>다시 메인 메뉴 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군과 적군의 class 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 ui 등 각종 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +691,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,7 +800,9 @@
       <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -800,7 +810,9 @@
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -973,6 +985,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -983,16 +1005,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D11AFA-22FC-4109-A36D-4C30444D3ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4496EAF0-4EFF-48B4-8BBD-CF6AEC354B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>스킬 ui 등 각종 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 ui 구현 방식 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +695,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,7 +828,9 @@
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -985,16 +991,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1005,6 +1001,16 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4496EAF0-4EFF-48B4-8BBD-CF6AEC354B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB29FF2-E422-4BEC-9A4D-C2CDC7268F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,7 +267,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전투 ui 구현 방식 변경</t>
+    <t>전투 ui 구현 방식 변경(게임 컨트롤러, 게임 월드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 구현 방식 변경, 방 이동 구현 -&gt; 랜덤 전투 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈출 후 월드 맵 구현하여 다음 던전까지 화살표로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 (앨리스, 루시펠-&gt;루시퍼) 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 사운드 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈과 상점 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물에서는 아이템만 등장하거나 적(경험치 주는 or 미믹)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배틀 전체 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -838,7 +870,12 @@
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -851,6 +888,9 @@
         <v>28</v>
       </c>
       <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
@@ -871,6 +911,9 @@
         <v>26</v>
       </c>
       <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
@@ -891,14 +934,20 @@
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -909,14 +958,20 @@
         <v>23</v>
       </c>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -928,19 +983,19 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
     </row>
@@ -991,6 +1046,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1001,16 +1066,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB29FF2-E422-4BEC-9A4D-C2CDC7268F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E8039-3564-463C-B2B7-95F569A1094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리소스 수집 포기, 직접 그릴 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방에서 시점 이동 구현, 적 구현 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,10 @@
   </si>
   <si>
     <t>배틀 전체 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 수집 포기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +727,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
@@ -801,7 +801,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -847,7 +847,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -871,10 +871,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -935,7 +935,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -944,7 +944,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -959,7 +959,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -968,7 +968,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1046,16 +1046,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1066,6 +1056,16 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E8039-3564-463C-B2B7-95F569A1094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EEF68-646A-4487-81BF-EEDF92764762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,62 @@
   </si>
   <si>
     <t>리소스 수집 포기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다수용 스킬 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 스킬 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군대상 스킬 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자, 회복 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 던전 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 추가, 치트 스킬 찰나멸 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map에서 레벨 표시, 조작 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 탈출구, 도시에서 던전 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전, 맵, 베틀 배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 버그 등 각종 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 데이터 처리 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +457,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -726,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,10 +813,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -768,8 +827,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
@@ -778,10 +837,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -795,8 +854,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
@@ -805,10 +864,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -819,18 +878,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -841,8 +900,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
@@ -851,10 +910,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -865,8 +924,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
@@ -878,10 +937,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -893,18 +952,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -916,18 +975,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -939,8 +998,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
@@ -948,10 +1007,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -963,8 +1022,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
@@ -972,10 +1031,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -984,18 +1043,84 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
     </row>
@@ -1046,6 +1171,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1056,16 +1191,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EEF68-646A-4487-81BF-EEDF92764762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5E12C-D3C0-43D4-9CF4-B45BD64D4296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,14 @@
   </si>
   <si>
     <t>각종 데이터 처리 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,7 +1005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
@@ -1006,7 +1014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
@@ -1030,7 +1038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1042,84 +1050,102 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="5:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="5:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="F35" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5E12C-D3C0-43D4-9CF4-B45BD64D4296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DEB08-A6C4-42B8-A324-C4B0DFD88FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,15 +351,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저장 버그 등 각종 버그 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각종 데이터 처리 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 버그 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1065,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1072,14 +1076,16 @@
         <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="5" t="s">
@@ -1137,13 +1143,13 @@
     </row>
     <row r="34" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="5:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -1197,16 +1203,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1217,6 +1213,16 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DEB08-A6C4-42B8-A324-C4B0DFD88FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAB891-7385-4423-83C3-7214DDF2287F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t>각종 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -798,7 +802,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1095,9 @@
       <c r="E25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="5" t="s">
@@ -1203,6 +1209,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1213,16 +1229,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAB891-7385-4423-83C3-7214DDF2287F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E17B76-B098-4597-9EF1-CAD66C646950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,12 +374,24 @@
     <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +422,15 @@
       <color rgb="FF3F3F3F"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -451,15 +472,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +502,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,9 +512,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="출력" xfId="1" builtinId="21"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -801,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -829,10 +857,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -843,8 +871,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
@@ -853,10 +881,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -870,8 +898,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
@@ -880,10 +908,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -894,18 +922,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -916,8 +944,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
@@ -926,10 +954,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -940,8 +968,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
@@ -953,10 +981,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -968,18 +996,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -991,18 +1019,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1014,8 +1042,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
@@ -1023,10 +1051,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1038,8 +1066,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
@@ -1047,10 +1075,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1059,8 +1087,8 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
@@ -1103,13 +1131,20 @@
       <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
@@ -1209,16 +1244,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1229,9 +1254,22 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{B6EF66D1-6D52-46AC-A557-8B70363B5F38}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
 </worksheet>
 </file>
--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E17B76-B098-4597-9EF1-CAD66C646950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C64F02-1D8B-4FB5-AE9C-316079F716CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,14 @@
   </si>
   <si>
     <t>https://freesound.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://maoudamashii.jokersounds.com/ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -829,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1147,10 +1155,15 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="5" t="s">
@@ -1244,6 +1257,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1254,22 +1277,13 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D27" r:id="rId1" xr:uid="{B6EF66D1-6D52-46AC-A557-8B70363B5F38}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{81D3C218-31A0-4FA8-AD1F-C3A385DC8452}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId3"/>
 </worksheet>
 </file>
--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C64F02-1D8B-4FB5-AE9C-316079F716CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90939F23-2711-4400-8CD3-CE88DF30C11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,10 @@
   </si>
   <si>
     <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 데이터 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1207,6 +1211,11 @@
       </c>
       <c r="F35" s="1"/>
     </row>
+    <row r="36" spans="5:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
     </row>
@@ -1257,16 +1266,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1277,6 +1276,16 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90939F23-2711-4400-8CD3-CE88DF30C11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728661F5-CFED-407C-9969-898CAF6D79D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,7 +842,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1173,13 +1173,17 @@
       <c r="E29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="5" t="s">
@@ -1266,6 +1270,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1276,16 +1290,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728661F5-CFED-407C-9969-898CAF6D79D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F238E-5E4F-4DF4-86A6-C80E15E70D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A13F27-D58D-46A6-9749-9B628960E2FF}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1189,9 @@
       <c r="E31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="5" t="s">
@@ -1270,16 +1272,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1290,6 +1282,16 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F238E-5E4F-4DF4-86A6-C80E15E70D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B26134-693F-4C14-9207-255424001204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,10 @@
   </si>
   <si>
     <t>각종 데이터 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +846,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1201,9 @@
       <c r="E32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="5:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="5" t="s">
@@ -1272,6 +1278,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1282,16 +1298,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/devSchedule.xlsx
+++ b/devSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Silly\Homework\2dGamePrograming\lastProject\2DGPLastProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B26134-693F-4C14-9207-255424001204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47422B-E29A-4F5B-90D1-B946E2B661A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{B1245899-F770-42B1-8C32-F60881BD91D9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,10 @@
   </si>
   <si>
     <t>각종 데이터 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -846,7 +850,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1213,9 @@
       <c r="E33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="34" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
@@ -1227,6 +1233,9 @@
       <c r="E36" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
@@ -1278,16 +1287,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1298,6 +1297,16 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
